--- a/mini_tournament.xlsx
+++ b/mini_tournament.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qchu/Columbia/COMS_4444/Community-Group-4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2FEFB6E-9E41-F147-BCFF-0DA47E4BD7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D8B7C3B8-0299-9443-8071-618944F0DB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="780" windowWidth="29380" windowHeight="20120" xr2:uid="{69D5A20D-788C-7E45-AEFF-2E25E7C1DF45}"/>
   </bookViews>
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA6289C-6C70-714B-8D43-FB695B4840DE}">
   <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2615,8 +2615,14 @@
       <c r="B52" t="s">
         <v>26</v>
       </c>
+      <c r="C52">
+        <v>4122</v>
+      </c>
       <c r="E52" t="s">
         <v>26</v>
+      </c>
+      <c r="F52">
+        <v>4500</v>
       </c>
       <c r="H52" t="s">
         <v>26</v>
@@ -2695,11 +2701,15 @@
       <c r="B56" t="s">
         <v>30</v>
       </c>
-      <c r="C56" s="6"/>
+      <c r="C56" s="6">
+        <v>3942</v>
+      </c>
       <c r="E56" t="s">
         <v>30</v>
       </c>
-      <c r="F56" s="6"/>
+      <c r="F56" s="6">
+        <v>4500</v>
+      </c>
       <c r="H56" t="s">
         <v>30</v>
       </c>

--- a/mini_tournament.xlsx
+++ b/mini_tournament.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qchu/Columbia/COMS_4444/Community-Group-4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D8B7C3B8-0299-9443-8071-618944F0DB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D46320C-B814-0E40-8511-30C28D72F8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="780" windowWidth="29380" windowHeight="20120" xr2:uid="{69D5A20D-788C-7E45-AEFF-2E25E7C1DF45}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="g4perf_v_difficulty" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="56">
   <si>
     <t>Community Mini-Tournament</t>
   </si>
@@ -166,6 +166,45 @@
   </si>
   <si>
     <t>Difficulty Scale</t>
+  </si>
+  <si>
+    <t>4v1</t>
+  </si>
+  <si>
+    <t>4v2</t>
+  </si>
+  <si>
+    <t>4v3</t>
+  </si>
+  <si>
+    <t>4v5</t>
+  </si>
+  <si>
+    <t>4v6</t>
+  </si>
+  <si>
+    <t>4v7</t>
+  </si>
+  <si>
+    <t>4v8</t>
+  </si>
+  <si>
+    <t>4v9</t>
+  </si>
+  <si>
+    <t>4v10</t>
+  </si>
+  <si>
+    <t>PAIRED TOURNAMENT (p=30)</t>
+  </si>
+  <si>
+    <t>4 alone</t>
+  </si>
+  <si>
+    <t>EASY</t>
+  </si>
+  <si>
+    <t>HARD</t>
   </si>
 </sst>
 </file>
@@ -201,7 +240,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,6 +265,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -239,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -249,7 +300,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA6289C-6C70-714B-8D43-FB695B4840DE}">
-  <dimension ref="A1:T62"/>
+  <dimension ref="A1:T75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -612,11 +664,20 @@
       <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="G3" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="J3" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="L3" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="O3" s="3" t="s">
         <v>15</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -1239,11 +1300,20 @@
       <c r="E19" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="G19" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="J19" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="L19" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="O19" s="7" t="s">
         <v>18</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="5:18" x14ac:dyDescent="0.2">
@@ -1827,14 +1897,26 @@
       <c r="B35" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="D35" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="G35" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="I35" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="L35" s="8" t="s">
         <v>21</v>
       </c>
+      <c r="N35" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="Q35" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="S35" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.2">
@@ -2841,6 +2923,285 @@
       </c>
       <c r="L62">
         <v>720</v>
+      </c>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B64" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B65" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66">
+        <v>1310</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66">
+        <v>2002</v>
+      </c>
+      <c r="H66" t="s">
+        <v>43</v>
+      </c>
+      <c r="I66">
+        <v>194</v>
+      </c>
+      <c r="K66" t="s">
+        <v>43</v>
+      </c>
+      <c r="L66">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67">
+        <v>1320</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67">
+        <v>1069</v>
+      </c>
+      <c r="H67" t="s">
+        <v>44</v>
+      </c>
+      <c r="I67">
+        <v>160</v>
+      </c>
+      <c r="K67" t="s">
+        <v>44</v>
+      </c>
+      <c r="L67">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>45</v>
+      </c>
+      <c r="C68">
+        <v>1356</v>
+      </c>
+      <c r="E68" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68">
+        <v>1003</v>
+      </c>
+      <c r="H68" t="s">
+        <v>45</v>
+      </c>
+      <c r="I68">
+        <v>171</v>
+      </c>
+      <c r="K68" t="s">
+        <v>45</v>
+      </c>
+      <c r="L68">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69">
+        <v>1200</v>
+      </c>
+      <c r="E69" t="s">
+        <v>53</v>
+      </c>
+      <c r="F69">
+        <v>1500</v>
+      </c>
+      <c r="H69" t="s">
+        <v>53</v>
+      </c>
+      <c r="I69">
+        <v>202</v>
+      </c>
+      <c r="K69" t="s">
+        <v>53</v>
+      </c>
+      <c r="L69">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>46</v>
+      </c>
+      <c r="C70">
+        <v>1311</v>
+      </c>
+      <c r="E70" t="s">
+        <v>46</v>
+      </c>
+      <c r="F70">
+        <v>1500</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70">
+        <v>177</v>
+      </c>
+      <c r="K70" t="s">
+        <v>46</v>
+      </c>
+      <c r="L70">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71">
+        <v>1310</v>
+      </c>
+      <c r="E71" t="s">
+        <v>47</v>
+      </c>
+      <c r="F71">
+        <v>2003</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71">
+        <v>139</v>
+      </c>
+      <c r="K71" t="s">
+        <v>47</v>
+      </c>
+      <c r="L71">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>48</v>
+      </c>
+      <c r="C72">
+        <v>1314</v>
+      </c>
+      <c r="E72" t="s">
+        <v>48</v>
+      </c>
+      <c r="F72">
+        <v>2003</v>
+      </c>
+      <c r="H72" t="s">
+        <v>48</v>
+      </c>
+      <c r="I72">
+        <v>210</v>
+      </c>
+      <c r="K72" t="s">
+        <v>48</v>
+      </c>
+      <c r="L72">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>49</v>
+      </c>
+      <c r="C73">
+        <v>1227</v>
+      </c>
+      <c r="E73" t="s">
+        <v>49</v>
+      </c>
+      <c r="F73">
+        <v>1500</v>
+      </c>
+      <c r="H73" t="s">
+        <v>49</v>
+      </c>
+      <c r="I73">
+        <v>211</v>
+      </c>
+      <c r="K73" t="s">
+        <v>49</v>
+      </c>
+      <c r="L73">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74">
+        <v>1295</v>
+      </c>
+      <c r="E74" t="s">
+        <v>50</v>
+      </c>
+      <c r="F74">
+        <v>2003</v>
+      </c>
+      <c r="H74" t="s">
+        <v>50</v>
+      </c>
+      <c r="I74">
+        <v>180</v>
+      </c>
+      <c r="K74" t="s">
+        <v>50</v>
+      </c>
+      <c r="L74">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75">
+        <v>1248</v>
+      </c>
+      <c r="E75" t="s">
+        <v>51</v>
+      </c>
+      <c r="F75">
+        <v>2002</v>
+      </c>
+      <c r="H75" t="s">
+        <v>51</v>
+      </c>
+      <c r="I75">
+        <v>178</v>
+      </c>
+      <c r="K75" t="s">
+        <v>51</v>
+      </c>
+      <c r="L75">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -2862,7 +3223,7 @@
       <c r="B3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" t="s">
         <v>41</v>
       </c>
     </row>
